--- a/data/questions_answers.xlsx
+++ b/data/questions_answers.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Advertising Budget and Sales" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="business.retailsales" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="choclate protfolio project - 11" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="clean_data" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Advertising Budget and Sales" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="business.retailsales" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="choclate protfolio project - 11" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="clean_data" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -109,16 +109,16 @@
     <t xml:space="preserve">The average amounts for cost per unit is 9.4733</t>
   </si>
   <si>
-    <t xml:space="preserve">Who is the lowest count for Sales Person?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lowest count of the Sales Person is  Barr Faughny.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How much is the total counts for USA?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA has a total counts of 53.</t>
+    <t xml:space="preserve">Which sales person appears the least in the data?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oby Sorrel has the least appearance in the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many sales persons reside in the USA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 53 sales person residing in the USA.</t>
   </si>
   <si>
     <t xml:space="preserve">What was the highest amount of sales?</t>
@@ -127,10 +127,10 @@
     <t xml:space="preserve">The highest amount of sales is 178122100.</t>
   </si>
   <si>
-    <t xml:space="preserve">Which customer has the highest order quantity?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barry Weirich has the highest order quantity at 50.</t>
+    <t xml:space="preserve">What are the product categories that the customer Barry French purchased?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product categories that Barry French purchased are office supplies, technology and furniture.</t>
   </si>
   <si>
     <t xml:space="preserve">Give me the average discount value for Office Supplies.</t>
@@ -229,7 +229,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,8 +245,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -256,7 +362,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="89.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>
@@ -322,7 +428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -332,7 +438,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.57"/>
@@ -398,17 +504,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.57"/>
@@ -474,17 +580,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.43"/>

--- a/data/questions_answers.xlsx
+++ b/data/questions_answers.xlsx
@@ -5,13 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Advertising Budget and Sales" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="business.retailsales" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="choclate protfolio project - 11" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="clean_data" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Advertising Budget and Sales" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="business.retailsales" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="choclate protfolio project - 11" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="clean_data" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Walmart" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="dairy_dataset" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sale Report" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Sales002" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t xml:space="preserve">Questions</t>
   </si>
@@ -109,16 +113,16 @@
     <t xml:space="preserve">The average amounts for cost per unit is 9.4733</t>
   </si>
   <si>
-    <t xml:space="preserve">Which sales person appears the least in the data?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oby Sorrel has the least appearance in the data.</t>
+    <t xml:space="preserve">Give me the product name that comes with 216 units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caramel Stuffed Bars</t>
   </si>
   <si>
     <t xml:space="preserve">How many sales persons reside in the USA?</t>
   </si>
   <si>
-    <t xml:space="preserve">There are 53 sales person residing in the USA.</t>
+    <t xml:space="preserve">There are 10 sales person residing in the USA.</t>
   </si>
   <si>
     <t xml:space="preserve">What was the highest amount of sales?</t>
@@ -149,16 +153,200 @@
   </si>
   <si>
     <t xml:space="preserve">The total amount of the order quantity is 140343.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much is the total counts of the available holiday flag?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total counts of the available holiday flag is 450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the highest value for weekly sales?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The highest value for weekly sales is 3818686.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the lowest value for unemployment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lowest value for unemployment is 3.879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the average value for unemployment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The average value for unemployment is 7.99915</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">What is the weekly sales on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">11-03-2011?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The weekly sales on 11-3-2011 is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1553191.63</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total counts of the unemployment comes with 8.106 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total counts of the unemployment comess with 8.106 is 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total sum of the fuel price?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total sum of the fuel price is 21612.635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total counts for medium farm size?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total counts for medium farm size is 1439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the highest value for the sold quantity of location Madhya Pradesh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The highest value of sold quantity in Madhya Pradesh location is 928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the product ID for Paneer from Sudha brand?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total price per unit for ice cream? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the shortest shelf life days?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the brand and product name that come with 31-10-2021 expiry date?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paneer Sudha brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which location has the biggest total land area?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandigarh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much is the highest stock?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total counts for blouse category?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">What is the stock number for SKU </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AN206-GREEN-M?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the SKU code that comes with Palazzo category M size and mustard color?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTM042-PP-M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total counts for BTM050?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total amounts of the stock?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total amounts of the red color?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What date has the highest profit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total revenue?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which product has the highest revenue?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touring-1000 Yellow, 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total amounts of male (M) gender?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the lowest order quantity?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total revenue for all 4-Bike hitch rack?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the total revenue in 2013?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -180,6 +368,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,12 +419,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,120 +448,14 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -428,13 +525,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -504,20 +601,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -580,14 +678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,4 +751,372 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.92"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>21849.829</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.3"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>242386</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>85271008</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>58312</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>519211</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>15240037</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/questions_answers.xlsx
+++ b/data/questions_answers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Advertising Budget and Sales" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
   <si>
     <t xml:space="preserve">Questions</t>
   </si>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">How many sales persons reside in the USA?</t>
   </si>
   <si>
-    <t xml:space="preserve">There are 10 sales person residing in the USA.</t>
+    <t xml:space="preserve">There are 53 sales person residing in the USA.</t>
   </si>
   <si>
     <t xml:space="preserve">What was the highest amount of sales?</t>
@@ -250,28 +250,43 @@
     <t xml:space="preserve">What is the product ID for Paneer from Sudha brand?</t>
   </si>
   <si>
+    <t xml:space="preserve">The product ID for Paneer from Sudha brand is 9</t>
+  </si>
+  <si>
     <t xml:space="preserve">What is the total price per unit for ice cream? </t>
   </si>
   <si>
+    <t xml:space="preserve">The total price pere unit for ice cream is 21849.829</t>
+  </si>
+  <si>
     <t xml:space="preserve">What is the shortest shelf life days?</t>
   </si>
   <si>
+    <t xml:space="preserve">The shortest shelf life days is 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">What are the brand and product name that come with 31-10-2021 expiry date?</t>
   </si>
   <si>
-    <t xml:space="preserve">Paneer Sudha brand</t>
+    <t xml:space="preserve">Product name is Paneer and brand is Sudha</t>
   </si>
   <si>
     <t xml:space="preserve">Which location has the biggest total land area?</t>
   </si>
   <si>
-    <t xml:space="preserve">Chandigarh</t>
+    <t xml:space="preserve">The location that has the biggest total land area is Chandigarh</t>
   </si>
   <si>
     <t xml:space="preserve">How much is the highest stock?</t>
   </si>
   <si>
+    <t xml:space="preserve">The highest stock is 1234</t>
+  </si>
+  <si>
     <t xml:space="preserve">What is the total counts for blouse category?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total counts for blouse category is 241</t>
   </si>
   <si>
     <r>
@@ -296,46 +311,118 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The stock number for SKU </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AN206-GREEN-M is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">13</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">What is the SKU code that comes with Palazzo category M size and mustard color?</t>
   </si>
   <si>
-    <t xml:space="preserve">BTM042-PP-M</t>
+    <t xml:space="preserve">The SKU code that comes with Palazzo category M size and mustard color is BTM042-PP-M</t>
   </si>
   <si>
     <t xml:space="preserve">What is the total counts for BTM050?</t>
   </si>
   <si>
+    <t xml:space="preserve">The total counts for BTM050 is 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">What is the total amounts of the stock?</t>
   </si>
   <si>
+    <t xml:space="preserve">The total amounts of the stock is 242386</t>
+  </si>
+  <si>
     <t xml:space="preserve">What is the total amounts of the red color?</t>
   </si>
   <si>
+    <t xml:space="preserve">The total amounts of the red color is 344</t>
+  </si>
+  <si>
     <t xml:space="preserve">What date has the highest profit?</t>
   </si>
   <si>
-    <t xml:space="preserve">2015-07-24</t>
+    <t xml:space="preserve">2015-07-24 has the highest profit</t>
   </si>
   <si>
     <t xml:space="preserve">What is the total revenue?</t>
   </si>
   <si>
+    <t xml:space="preserve">The total revenue is 85271008</t>
+  </si>
+  <si>
     <t xml:space="preserve">Which product has the highest revenue?</t>
   </si>
   <si>
-    <t xml:space="preserve">Touring-1000 Yellow, 50</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Product that has the highest revenue is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Touring-1000 Yellow, 50</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">What is the total amounts of male (M) gender?</t>
   </si>
   <si>
+    <t xml:space="preserve">The total amounts of male (M) gender is 58312</t>
+  </si>
+  <si>
     <t xml:space="preserve">What is the lowest order quantity?</t>
   </si>
   <si>
+    <t xml:space="preserve">The lowest order quantity is 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">What is the total revenue for all 4-Bike hitch rack?</t>
   </si>
   <si>
+    <t xml:space="preserve">The total revenue for all 4-Bike hitch rack is 519211</t>
+  </si>
+  <si>
     <t xml:space="preserve">What is the total revenue in 2013?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total revenue in 2013 is 15240037</t>
   </si>
 </sst>
 </file>
@@ -346,7 +433,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -375,6 +462,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -419,12 +518,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -515,8 +618,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -591,8 +694,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -607,8 +710,8 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -668,8 +771,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -744,8 +847,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -837,7 +940,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -853,12 +956,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.53"/>
   </cols>
   <sheetData>
@@ -890,46 +993,46 @@
       <c r="A4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>9</v>
+      <c r="B4" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>21849.829</v>
+        <v>62</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -945,7 +1048,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -964,64 +1067,64 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1234</v>
+        <v>70</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>241</v>
+        <v>72</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>13</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>242386</v>
+        <v>80</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>344</v>
+        <v>82</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1036,13 +1139,13 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.21"/>
   </cols>
   <sheetData>
@@ -1056,64 +1159,64 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>85271008</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>58312</v>
+        <v>90</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>519211</v>
+        <v>94</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>15240037</v>
+        <v>96</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
